--- a/data/trans_bre/P57_AF_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.8795323609142036</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.65841970200774</v>
+        <v>7.658419702007735</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09683231980263225</v>
@@ -649,7 +649,7 @@
         <v>-0.012637715473893</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2001070771939184</v>
+        <v>0.2001070771939182</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.176626690630116</v>
+        <v>-1.105428440989673</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.337432269114839</v>
+        <v>-5.277839319474125</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.161072146570451</v>
+        <v>-7.130084176160384</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.712721115244855</v>
+        <v>-2.290185925891504</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.04038459325446191</v>
+        <v>-0.02098913697782757</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.09000575453961823</v>
+        <v>-0.09143725852412715</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.0982181332881089</v>
+        <v>-0.09973245710416333</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.08739281561189051</v>
+        <v>-0.04982540013274299</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.09453251118598</v>
+        <v>11.35404871295306</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.753039335888746</v>
+        <v>8.139615981357675</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.130986796277152</v>
+        <v>5.182524095499994</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.94148032667525</v>
+        <v>17.88498839842996</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2330559049609982</v>
+        <v>0.2429607239047885</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1501219343778781</v>
+        <v>0.1581449799521643</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07767909584800876</v>
+        <v>0.07711806914302169</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.58091858182047</v>
+        <v>0.5384092761318614</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.669342081690428</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-5.534528586001447</v>
+        <v>-5.534528586001441</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.02105670240631956</v>
@@ -749,7 +749,7 @@
         <v>-0.02216902391482242</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1008744121223831</v>
+        <v>-0.100874412122383</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.952631464579897</v>
+        <v>-6.346267303887365</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.576141232397613</v>
+        <v>1.986878837535745</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-6.883175327855342</v>
+        <v>-6.147143165464878</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-14.32623744705021</v>
+        <v>-14.39590400638788</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1136657216106317</v>
+        <v>-0.1052863797150581</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04275108434846338</v>
+        <v>0.03346235961628346</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08886078063471295</v>
+        <v>-0.08053205506139918</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2361753221691745</v>
+        <v>-0.235504810435231</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.782022056258947</v>
+        <v>4.212226941023772</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.57089926859292</v>
+        <v>13.36287818862012</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.73160461821582</v>
+        <v>4.119150169696376</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.330450556617299</v>
+        <v>2.439387419495815</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06862547788703453</v>
+        <v>0.07511799620820556</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2464395335664586</v>
+        <v>0.2427739770944898</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05034492476466979</v>
+        <v>0.05742672621982644</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.02744877821805147</v>
+        <v>0.04687021068092154</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.716289360153098</v>
+        <v>-6.750589765878506</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.453224450520818</v>
+        <v>-5.157199727490426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.369634160905087</v>
+        <v>-5.788377884438638</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.622831204955061</v>
+        <v>-7.668637291429696</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1051806347157562</v>
+        <v>-0.1060996247810979</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08059905661776953</v>
+        <v>-0.07651613474891551</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.08504468725424716</v>
+        <v>-0.07561250565538556</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1248178592070674</v>
+        <v>-0.12536218324082</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.57344307840572</v>
+        <v>4.453657156292843</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.007888836205615</v>
+        <v>5.213438534564633</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.10530558829071</v>
+        <v>3.886149657272517</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.339206820170896</v>
+        <v>2.920072496165609</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07823249292446212</v>
+        <v>0.07652176373026484</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07950980422729023</v>
+        <v>0.08350847303775719</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05788533821096689</v>
+        <v>0.0557532459062156</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.05882692586807547</v>
+        <v>0.05204388277691867</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.428291830241157</v>
+        <v>-6.382089010988615</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.908053188113773</v>
+        <v>3.435922336483253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.738111387700938</v>
+        <v>-4.692593828660833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.551885882686618</v>
+        <v>-2.442638472160048</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.09749936948769217</v>
+        <v>-0.09907093050493015</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04385737243353014</v>
+        <v>0.05239767847047632</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04794543669775097</v>
+        <v>-0.05909319148274437</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04252989895791708</v>
+        <v>-0.04096775631311775</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.612434266632374</v>
+        <v>4.792955676950511</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.78455375303632</v>
+        <v>14.79319472510196</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.813792937228132</v>
+        <v>5.690826231336152</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.495937672863049</v>
+        <v>7.003760737496735</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09424594746478571</v>
+        <v>0.08130043382129022</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2463539211433144</v>
+        <v>0.2402477752337727</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07797149368835601</v>
+        <v>0.07787799317217163</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1403999821668648</v>
+        <v>0.1308631974632322</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.243895341000281</v>
+        <v>-4.258557546145987</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.875970799516404</v>
+        <v>3.084453097164803</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.061371843657728</v>
+        <v>-1.275334718306918</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.442784818553556</v>
+        <v>-3.860948463278232</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.06259465239921989</v>
+        <v>-0.06469106725027478</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0611402360580767</v>
+        <v>0.0503734478869177</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.01391226160777453</v>
+        <v>-0.0162576355223534</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.05415306554037538</v>
+        <v>-0.06006603289349519</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.176845449765249</v>
+        <v>8.203341150357303</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.53634743745408</v>
+        <v>16.47471756885533</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.82540855672719</v>
+        <v>10.35733594771956</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.968089391688395</v>
+        <v>6.304933826095263</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1499530207458356</v>
+        <v>0.1350605157375268</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2982777228629901</v>
+        <v>0.2970050582011158</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1530923064928997</v>
+        <v>0.1478500353852762</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1024309868567412</v>
+        <v>0.1063578870431444</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>8.881596288590876</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-1.127092123129247</v>
+        <v>-1.127092123129259</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.04339608455040858</v>
@@ -1149,7 +1149,7 @@
         <v>0.1238314828207557</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.0181298922848825</v>
+        <v>-0.01812989228488267</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-9.998893781712816</v>
+        <v>-9.999248130755166</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.785766631764047</v>
+        <v>-3.998933951009345</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.838821080777545</v>
+        <v>2.274206045551434</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-6.495878617659458</v>
+        <v>-6.490844762820346</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1422479884979789</v>
+        <v>-0.1401828196797499</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.05221950663702288</v>
+        <v>-0.05655174311803755</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03680010344422358</v>
+        <v>0.03017409797267187</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.100371389301931</v>
+        <v>-0.09941941124849699</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.368359875320708</v>
+        <v>4.418630751576242</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.18510027553535</v>
+        <v>11.20063708620417</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.99477906223809</v>
+        <v>15.61470624905364</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.163133077370663</v>
+        <v>4.238051502225466</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.06700606745487199</v>
+        <v>0.06898855010667999</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1820888101532</v>
+        <v>0.1783380484483443</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2351461767300221</v>
+        <v>0.2313223996222392</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.06853967923750436</v>
+        <v>0.07196798262716565</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>5.911656344653593</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.045276666215113</v>
+        <v>3.045276666215102</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.03493805998392653</v>
@@ -1249,7 +1249,7 @@
         <v>0.07579673531777351</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.04521745517498561</v>
+        <v>0.04521745517498543</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.36195860232205</v>
+        <v>-10.2222908574346</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.6059864092782</v>
+        <v>-10.69522105105309</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.2937673371422873</v>
+        <v>-1.128257580376973</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.303122435298168</v>
+        <v>-2.529912253390456</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1368584898577919</v>
+        <v>-0.1348597021086645</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1407684554342607</v>
+        <v>-0.1416543532497332</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.003357028981563506</v>
+        <v>-0.01217366751682855</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.03288816558035444</v>
+        <v>-0.03637869921194648</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.06456276045478</v>
+        <v>5.942115533367764</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.86589680638503</v>
+        <v>5.227311721691358</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.78630481631297</v>
+        <v>11.86969871979629</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.346308377800144</v>
+        <v>8.21572758336244</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.09079107385670412</v>
+        <v>0.08540253110707531</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07346706066250488</v>
+        <v>0.07931978297116947</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1630967078707758</v>
+        <v>0.1620281783199941</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.148729807342145</v>
+        <v>0.1299069578236119</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>2.152944067154183</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1.19037355368744</v>
+        <v>1.190373553687452</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009009536487437983</v>
@@ -1349,7 +1349,7 @@
         <v>0.0291174109103958</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.02088417788221221</v>
+        <v>0.02088417788221241</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.801775749117506</v>
+        <v>-1.69212090711841</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.696721525532696</v>
+        <v>2.4291691098627</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.02491281680542535</v>
+        <v>-0.009479831619666163</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.181274526882787</v>
+        <v>-0.9476334309292683</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02916323513818467</v>
+        <v>-0.02732422053942747</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04291097798045796</v>
+        <v>0.03825120173681956</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0001548344186971378</v>
+        <v>6.619098764923715e-05</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.02015625820913898</v>
+        <v>-0.01646188489909464</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.034710839956372</v>
+        <v>3.179878149986967</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.473677099831819</v>
+        <v>6.993740007941509</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.226915261584177</v>
+        <v>4.10477421349144</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.597057363913399</v>
+        <v>3.87716136475369</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.05092796170733112</v>
+        <v>0.05348114458953988</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1240048970385292</v>
+        <v>0.1149239626453134</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05822483077539935</v>
+        <v>0.05586818248293993</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0638291762346806</v>
+        <v>0.06993950159073969</v>
       </c>
     </row>
     <row r="28">
